--- a/PLANTILLA PLACAS.xlsx
+++ b/PLANTILLA PLACAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROGRAMADOR\Documents\NetBeansProjects\CDM_NUEVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PRODUCCION\Mis documentos\SOFTWARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,13 +125,13 @@
     <t>Derivacion</t>
   </si>
   <si>
-    <t>Serv</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Servicio</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -569,13 +569,13 @@
         <v>19</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
